--- a/emotions_eng/all_emotions.xlsx
+++ b/emotions_eng/all_emotions.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\my-study-python\emotions_eng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Courses\my-study-python\emotions_eng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0183C7-6C38-43A8-A41B-378282B2B746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E901A07-0DB5-40F6-BA14-39019B11AB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15264" yWindow="0" windowWidth="15552" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="8">
   <si>
     <t>emotion</t>
   </si>
@@ -63,6 +64,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0E+00"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,11 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -138,7 +143,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1892,13 +1897,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1909,7 +1914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1923,7 +1928,7 @@
         <v>0.98482068402977996</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1937,7 +1942,7 @@
         <v>0.81047579599103226</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1951,7 +1956,7 @@
         <v>0.93419550585899847</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1965,7 +1970,7 @@
         <v>0.78827132510202003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1979,7 +1984,7 @@
         <v>0.82028051595567897</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1993,7 +1998,7 @@
         <v>0.87762729631770997</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2007,7 +2012,7 @@
         <v>0.61635421495842102</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2021,7 +2026,7 @@
         <v>0.81573524956621002</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2035,7 +2040,7 @@
         <v>0.95240428389489995</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2049,7 +2054,7 @@
         <v>0.73081193009794199</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2063,7 +2068,7 @@
         <v>0.58275078860236396</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2077,7 +2082,7 @@
         <v>7.8928667864301416E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2091,7 +2096,7 @@
         <v>2.6166044156828602E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2105,7 +2110,7 @@
         <v>3.6622242162169999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2119,7 +2124,7 @@
         <v>0.16606257998702401</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2133,7 +2138,7 @@
         <v>8.6332147136114566E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2147,7 +2152,7 @@
         <v>3.6114628053050678E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2161,7 +2166,7 @@
         <v>1.0512594363584499E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2175,7 +2180,7 @@
         <v>8.3685591051271008E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2189,7 +2194,7 @@
         <v>5.82252411340557E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2203,7 +2208,7 @@
         <v>0.30458412439573601</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2217,7 +2222,7 @@
         <v>2.9386663672489998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2231,7 +2236,7 @@
         <v>0.32961562389891641</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2245,7 +2250,7 @@
         <v>0.25970011067993648</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2259,7 +2264,7 @@
         <v>0.4152540317394614</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2273,7 +2278,7 @@
         <v>0.23314047348891342</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2287,7 +2292,7 @@
         <v>0.11449674013970901</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2301,7 +2306,7 @@
         <v>0.17814365129033183</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2315,7 +2320,7 @@
         <v>0.26466621143422542</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2329,7 +2334,7 @@
         <v>0.2923374582498014</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2343,7 +2348,7 @@
         <v>0.10833676409822524</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2357,7 +2362,7 @@
         <v>0.19162028369272655</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2371,7 +2376,7 @@
         <v>0.18567861953831843</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2385,7 +2390,7 @@
         <v>0.59329640379761339</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2399,7 +2404,7 @@
         <v>0.80154474782491314</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2413,7 +2418,7 @@
         <v>0.76852646843694261</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2427,7 +2432,7 @@
         <v>0.85130921866149811</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2441,7 +2446,7 @@
         <v>0.82873630696358402</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2455,7 +2460,7 @@
         <v>0.7447437027309427</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2469,7 +2474,7 @@
         <v>0.69268922002503297</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2483,7 +2488,7 @@
         <v>0.72152985763858868</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2497,7 +2502,7 @@
         <v>0.91448376763952299</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2511,7 +2516,7 @@
         <v>0.87557834926544409</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2525,7 +2530,7 @@
         <v>0.64959148374490194</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2539,7 +2544,7 @@
         <v>0.45647686867155302</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2553,7 +2558,7 @@
         <v>0.53433577683591582</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2567,7 +2572,7 @@
         <v>0.80634628047889612</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2581,7 +2586,7 @@
         <v>0.59040175406760453</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2595,7 +2600,7 @@
         <v>0.52707064573323215</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2609,7 +2614,7 @@
         <v>0.70657475741237374</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2623,7 +2628,7 @@
         <v>0.64919542625208182</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2637,7 +2642,7 @@
         <v>0.58112769579214429</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2651,7 +2656,7 @@
         <v>0.79814980000899305</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2665,7 +2670,7 @@
         <v>0.65408574307687828</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2683,4 +2688,183 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E590F45-BE55-4000-8C93-0DEEEEEFD2A4}">
+  <dimension ref="B1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>0.5*B2-0.0999999999999999</f>
+        <v>-9.9999999999999895E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3" s="2">
+        <f>0.5*B3-0.0999999999999999</f>
+        <v>1.1102230246251565E-16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>0.4</v>
+      </c>
+      <c r="C4">
+        <f>0.5*B4-0.0999999999999999</f>
+        <v>0.10000000000000012</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>0.6</v>
+      </c>
+      <c r="C5">
+        <f>0.5*B5-0.0999999999999999</f>
+        <v>0.20000000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>0.8</v>
+      </c>
+      <c r="C6">
+        <f>0.5*B6-0.0999999999999999</f>
+        <v>0.30000000000000016</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <f>0.5*B7-0.0999999999999999</f>
+        <v>0.40000000000000013</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>1.2</v>
+      </c>
+      <c r="C8">
+        <f>0.5*B8-0.0999999999999999</f>
+        <v>0.50000000000000011</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>1.4</v>
+      </c>
+      <c r="C9">
+        <f>0.5*B9-0.0999999999999999</f>
+        <v>0.60000000000000009</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10">
+        <v>1.6</v>
+      </c>
+      <c r="C10">
+        <f>0.5*B10-0.0999999999999999</f>
+        <v>0.70000000000000018</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>1.8</v>
+      </c>
+      <c r="C11">
+        <f>0.5*B11-0.0999999999999999</f>
+        <v>0.80000000000000016</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <f>0.5*B12-0.0999999999999999</f>
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C13">
+        <f>0.5*B13-0.0999999999999999</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B14">
+        <v>2.4</v>
+      </c>
+      <c r="C14">
+        <f>0.5*B14-0.0999999999999999</f>
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B15">
+        <v>2.6</v>
+      </c>
+      <c r="C15">
+        <f>0.5*B15-0.0999999999999999</f>
+        <v>1.2000000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B16">
+        <v>2.8</v>
+      </c>
+      <c r="C16">
+        <f>0.5*B16-0.0999999999999999</f>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <f>0.5*B17-0.0999999999999999</f>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18">
+        <v>3.2</v>
+      </c>
+      <c r="C18">
+        <f>0.5*B18-0.0999999999999999</f>
+        <v>1.5000000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>